--- a/POJ_JAVA/videoTutorials/Java零基础入门教程-包含面向对象_任小龙/课时18_Java语言基础-CLASSPATH环境变量/课时18_Java语言基础-CLASSPATH环境变量.xlsx
+++ b/POJ_JAVA/videoTutorials/Java零基础入门教程-包含面向对象_任小龙/课时18_Java语言基础-CLASSPATH环境变量/课时18_Java语言基础-CLASSPATH环境变量.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,18 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +57,243 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="95250"/>
+          <a:ext cx="13009525" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="7639050"/>
+          <a:ext cx="13009525" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="15182850"/>
+          <a:ext cx="13009525" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="22898100"/>
+          <a:ext cx="13009525" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="30441900"/>
+          <a:ext cx="13009525" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +578,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>